--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>用例ID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>期望</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>登录接口</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>{'code': 0}</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>开奖结果</t>
   </si>
   <si>
@@ -123,37 +129,172 @@
     <t>/front/check_update.do</t>
   </si>
   <si>
-    <t>中间名单</t>
+    <t>中奖名单</t>
   </si>
   <si>
     <t>/front/homepage/init.do</t>
   </si>
   <si>
+    <t>获取打码量</t>
+  </si>
+  <si>
+    <t>/capital/manage/get_bet_num.do</t>
+  </si>
+  <si>
     <t>获取提款记录</t>
   </si>
   <si>
-    <t>/capital/manage/get_bet_num.do</t>
+    <t>/capital/manage/withdrawal_log_list.do</t>
   </si>
   <si>
     <t>九宫格</t>
   </si>
   <si>
-    <t>/capital/manage/withdrawal_log_list.do</t>
+    <t>/front/appshow/get_list.do</t>
   </si>
   <si>
     <t>查询所有头像</t>
   </si>
   <si>
-    <t>/front/appshow/get_list.do</t>
+    <t>/front/personal_center/get_avatar.do</t>
   </si>
   <si>
     <t>获取平台公告</t>
   </si>
   <si>
-    <t>/front/personal_center/get_avatar.do</t>
-  </si>
-  <si>
     <t>/front/news/notice.do</t>
+  </si>
+  <si>
+    <t>根据id获取彩票的开奖和倒计时</t>
+  </si>
+  <si>
+    <t>{'lotteryIds':18}</t>
+  </si>
+  <si>
+    <t>/front/lottery/draw_infos.do</t>
+  </si>
+  <si>
+    <t>{'page':1,'status':-1,'lotteryId':-1}</t>
+  </si>
+  <si>
+    <t>投注</t>
+  </si>
+  <si>
+    <t>[{'after':1,'playId':657,'issue':'720000','rebate':0,'unitFee':400,'numbers':'12'}]</t>
+  </si>
+  <si>
+    <t>/front/bet/betting.do</t>
+  </si>
+  <si>
+    <t>绑定银联卡</t>
+  </si>
+  <si>
+    <t>{'bankAccount':'6228480063279307098','receivingBank':'农业银行','payee':'1002', 'bankAddress':'哈尔滨', 'payPassword':'123456'}</t>
+  </si>
+  <si>
+    <t>/account/manage/complete_bankinfo.do</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>{'amount':'10','payPassword':'123456'}</t>
+  </si>
+  <si>
+    <t>/capital/manage/withdrawal.do</t>
+  </si>
+  <si>
+    <t>获取充值记录</t>
+  </si>
+  <si>
+    <t>{'userId':120436,'platform':'ANDROID','version':'5.2.3'}</t>
+  </si>
+  <si>
+    <t>/front/recharge/get_list.do</t>
+  </si>
+  <si>
+    <t>银联卡充值</t>
+  </si>
+  <si>
+    <t>{'bank_id':28,'depositor':'利达','deposit_time':'2018-12-13 19:16','deposit_type':'网银转账','amount':'50.00'}</t>
+  </si>
+  <si>
+    <t>/front/recharge/common.do</t>
+  </si>
+  <si>
+    <t>重置登录密码</t>
+  </si>
+  <si>
+    <t>{'password':'123456','payPassword':'000000'}</t>
+  </si>
+  <si>
+    <t>/account/manage/reset_password.do</t>
+  </si>
+  <si>
+    <t>重置支付密码</t>
+  </si>
+  <si>
+    <t>/account/manage/set_paypassword.do</t>
+  </si>
+  <si>
+    <t>充值记录</t>
+  </si>
+  <si>
+    <t>{'status':-1,'page':1}</t>
+  </si>
+  <si>
+    <t>/capital/manage/recharge_log_list.do</t>
+  </si>
+  <si>
+    <t>提款记录</t>
+  </si>
+  <si>
+    <t>账户明细</t>
+  </si>
+  <si>
+    <t>{'type':-1,'page':1}</t>
+  </si>
+  <si>
+    <t>/capital/manage/change_log.do</t>
+  </si>
+  <si>
+    <t>个人消息</t>
+  </si>
+  <si>
+    <t>{'authorId':120436,'authorName':'1002','page':1,'page_rows':10}</t>
+  </si>
+  <si>
+    <t>/message_service/personal_message.do</t>
+  </si>
+  <si>
+    <t>更新用户信息</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>/front/personal_center/update.do</t>
+  </si>
+  <si>
+    <t>今日盈亏</t>
+  </si>
+  <si>
+    <t>{'account':'1002','begin':'2018-12-13 00:00:00','end':'2018-12-13 19:29:23'}</t>
+  </si>
+  <si>
+    <t>/front/personal_center/get_profit.do</t>
+  </si>
+  <si>
+    <t>投注界面数据渲染</t>
+  </si>
+  <si>
+    <t>{'lotteryId':18}</t>
+  </si>
+  <si>
+    <t>/front/lottery/lottery_group.do</t>
   </si>
 </sst>
 </file>
@@ -163,11 +304,19 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,6 +338,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF629755"/>
@@ -196,10 +358,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -210,17 +390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,15 +414,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,41 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -308,6 +465,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -323,28 +495,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,19 +511,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,55 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,61 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,26 +707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +725,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,8 +767,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,15 +802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,159 +822,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,401 +1343,884 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="15.3796296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="121.222222222222" customWidth="1"/>
     <col min="5" max="5" width="45.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>123</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>123</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>123</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>123</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>123</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
+      <c r="E12" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>123</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>123</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>123</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="B16" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>123</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
+      <c r="E16" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="2">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>123</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
+      <c r="B18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>123</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="5:7">
-      <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:8">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2">
+        <v>123</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:8">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:8">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:8">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:8">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:8">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:8">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:8">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:8">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:8">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:8">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:8">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:8">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:8">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:8">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:8">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:8">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -273,7 +273,7 @@
     <t>更新用户信息</t>
   </si>
   <si>
-    <t>?????</t>
+    <t>{'qq':'1234560','userId':120436}</t>
   </si>
   <si>
     <t>/front/personal_center/update.do</t>
@@ -282,7 +282,7 @@
     <t>今日盈亏</t>
   </si>
   <si>
-    <t>{'account':'1002','begin':'2018-12-13 00:00:00','end':'2018-12-13 19:29:23'}</t>
+    <t>{'account':'1002','begin':1544630400000,'end':1544716799000}</t>
   </si>
   <si>
     <t>/front/personal_center/get_profit.do</t>
@@ -304,8 +304,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -360,9 +360,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,15 +413,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -391,7 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,58 +451,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,21 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -496,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,103 +523,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,55 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,9 +707,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,17 +751,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,15 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -788,17 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,149 +810,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,15 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -990,9 +981,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,8 +1333,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1358,29 +1346,29 @@
     <col min="5" max="5" width="45.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4"/>
+    <col min="8" max="8" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1391,7 +1379,7 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2">
@@ -1400,7 +1388,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1409,7 +1397,7 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1417,7 +1405,7 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2">
@@ -1432,7 +1420,7 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1440,7 +1428,7 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2">
@@ -1455,7 +1443,7 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1463,7 +1451,7 @@
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
@@ -1481,7 +1469,7 @@
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1489,13 +1477,13 @@
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>123</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1504,7 +1492,7 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1512,13 +1500,13 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>123</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1527,7 +1515,7 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1535,7 +1523,7 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2">
@@ -1550,7 +1538,7 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1558,13 +1546,13 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>123</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1573,7 +1561,7 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1581,13 +1569,13 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>123</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1596,7 +1584,7 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1604,7 +1592,7 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2">
@@ -1619,7 +1607,7 @@
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1627,13 +1615,13 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>123</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1642,7 +1630,7 @@
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1650,13 +1638,13 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>123</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1665,7 +1653,7 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1673,13 +1661,13 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>123</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1688,7 +1676,7 @@
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1696,13 +1684,13 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>123</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1711,7 +1699,7 @@
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1719,13 +1707,13 @@
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>123</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1734,7 +1722,7 @@
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1742,13 +1730,13 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>123</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1757,7 +1745,7 @@
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1765,13 +1753,13 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>123</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1780,7 +1768,7 @@
       <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1788,13 +1776,13 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2">
         <v>123</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1803,7 +1791,7 @@
       <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1811,7 +1799,7 @@
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2">
@@ -1820,7 +1808,7 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1829,7 +1817,7 @@
       <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1846,7 +1834,7 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1855,7 +1843,7 @@
       <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1872,7 +1860,7 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1881,7 +1869,7 @@
       <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1898,7 +1886,7 @@
       <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1907,7 +1895,7 @@
       <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1924,7 +1912,7 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1933,7 +1921,7 @@
       <c r="G24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1950,7 +1938,7 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1959,7 +1947,7 @@
       <c r="G25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1976,7 +1964,7 @@
       <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1985,8 +1973,8 @@
       <c r="G26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>13</v>
+      <c r="H26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:8">
@@ -2002,7 +1990,7 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2011,7 +1999,7 @@
       <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2028,7 +2016,7 @@
       <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2037,7 +2025,7 @@
       <c r="G28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2054,7 +2042,7 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2063,7 +2051,7 @@
       <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2080,7 +2068,7 @@
       <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2089,7 +2077,7 @@
       <c r="G30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2106,7 +2094,7 @@
       <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2115,7 +2103,7 @@
       <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2132,7 +2120,7 @@
       <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2141,7 +2129,7 @@
       <c r="G32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2149,7 +2137,7 @@
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="2">
@@ -2158,7 +2146,7 @@
       <c r="D33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2167,8 +2155,8 @@
       <c r="G33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>59</v>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:8">
@@ -2184,7 +2172,7 @@
       <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2193,7 +2181,7 @@
       <c r="G34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2210,7 +2198,7 @@
       <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2219,7 +2207,7 @@
       <c r="G35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
